--- a/medicine/Psychotrope/Neuburger/Neuburger.xlsx
+++ b/medicine/Psychotrope/Neuburger/Neuburger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le neuburger est un cépage de vigne blanc.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Il est issu du croisement du Roter Veltliner et du Sylvaner[réf. nécessaire]. Il serait originaire de la Wachau en Autriche[1].
-Géographique
-Il est très répandu en Autriche (1 600 hectares durant les années 1990[1]) et en République tchèque, où il est nommé Neuburské.
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est issu du croisement du Roter Veltliner et du Sylvaner[réf. nécessaire]. Il serait originaire de la Wachau en Autriche.
 </t>
         </is>
       </c>
@@ -543,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très répandu en Autriche (1 600 hectares durant les années 1990) et en République tchèque, où il est nommé Neuburské.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Neuburger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neuburger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bourgeonnement est vert pâle à reflets bronzés. 
 Les feuilles adultes sont moyenne à grande, trilobées, le limbe porte des dents ogivales.
@@ -555,42 +609,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Neuburger</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Neuburger</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Aptitudes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culturales
-Il est peu exigeant vis-à-vis du sol, mais sa sensibilité aux gelées printanières est un frein à sa culture. Il craint aussi le vent et la coulure. 
-Sensibilité aux maladies
-Il craint peu les maladies cryptogamiques, mais est très sensible à la pourriture grise.
-Technologiques
-Il donne des vins floraux, parfois déséquilibrés par un excès d'alcool et un manque de fraicheur. 
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -612,10 +630,123 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est peu exigeant vis-à-vis du sol, mais sa sensibilité aux gelées printanières est un frein à sa culture. Il craint aussi le vent et la coulure. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Neuburger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neuburger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il craint peu les maladies cryptogamiques, mais est très sensible à la pourriture grise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Neuburger</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neuburger</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne des vins floraux, parfois déséquilibrés par un excès d'alcool et un manque de fraicheur. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Neuburger</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neuburger</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
